--- a/data/pca/factorExposure/factorExposure_2012-11-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-28.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0007655089916345417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002066730001587256</v>
+      </c>
+      <c r="C2">
+        <v>-0.03108340785982699</v>
+      </c>
+      <c r="D2">
+        <v>0.004473603089721919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0004251353777998535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006807722977631036</v>
+      </c>
+      <c r="C4">
+        <v>-0.08325096016700599</v>
+      </c>
+      <c r="D4">
+        <v>0.07603914512117195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005104870284493682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01453494494199797</v>
+      </c>
+      <c r="C6">
+        <v>-0.1143444357775409</v>
+      </c>
+      <c r="D6">
+        <v>0.03383906202909832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001719331295144937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004706829878373348</v>
+      </c>
+      <c r="C7">
+        <v>-0.05787200695197255</v>
+      </c>
+      <c r="D7">
+        <v>0.03195594203000215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003725142563680833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005644285611876642</v>
+      </c>
+      <c r="C8">
+        <v>-0.03657444074496184</v>
+      </c>
+      <c r="D8">
+        <v>0.0410102662523817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003652057553155193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00478859427352769</v>
+      </c>
+      <c r="C9">
+        <v>-0.07046895264834924</v>
+      </c>
+      <c r="D9">
+        <v>0.0736611450521417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002251683230401967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005660730291630587</v>
+      </c>
+      <c r="C10">
+        <v>-0.05792547762631647</v>
+      </c>
+      <c r="D10">
+        <v>-0.1965975830291456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.00262845732421817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005833565843260957</v>
+      </c>
+      <c r="C11">
+        <v>-0.07981367268082938</v>
+      </c>
+      <c r="D11">
+        <v>0.06040505314539944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001555393799263021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004156736507843315</v>
+      </c>
+      <c r="C12">
+        <v>-0.06407771644405401</v>
+      </c>
+      <c r="D12">
+        <v>0.0469511516558136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.0008105707745535459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008672099296959574</v>
+      </c>
+      <c r="C13">
+        <v>-0.06875165353328733</v>
+      </c>
+      <c r="D13">
+        <v>0.05831735778165031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001174623396431028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001197747213498047</v>
+      </c>
+      <c r="C14">
+        <v>-0.0441077455604938</v>
+      </c>
+      <c r="D14">
+        <v>0.006399003929650257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006114204625628465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005994479178422439</v>
+      </c>
+      <c r="C15">
+        <v>-0.04163194936028448</v>
+      </c>
+      <c r="D15">
+        <v>0.03123953612946159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0004922313979881948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005115385441050634</v>
+      </c>
+      <c r="C16">
+        <v>-0.06445552455506511</v>
+      </c>
+      <c r="D16">
+        <v>0.0518176839570449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>5.558929122010884e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008663997869465331</v>
+      </c>
+      <c r="C20">
+        <v>-0.06552882303636928</v>
+      </c>
+      <c r="D20">
+        <v>0.04284633161756601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.00556389683200937</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009771578061621877</v>
+      </c>
+      <c r="C21">
+        <v>-0.0213422979226299</v>
+      </c>
+      <c r="D21">
+        <v>0.03807812468416086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01654360043714659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006083412401299002</v>
+      </c>
+      <c r="C22">
+        <v>-0.09357467077651806</v>
+      </c>
+      <c r="D22">
+        <v>0.1161605307745894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01688766225677179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.005907605129527331</v>
+      </c>
+      <c r="C23">
+        <v>-0.09439175355615528</v>
+      </c>
+      <c r="D23">
+        <v>0.1161833205531082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001561229409832645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.00561229959608383</v>
+      </c>
+      <c r="C24">
+        <v>-0.07691563117191171</v>
+      </c>
+      <c r="D24">
+        <v>0.06474214109060729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004311703415278059</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003181006551755837</v>
+      </c>
+      <c r="C25">
+        <v>-0.07777721745361649</v>
+      </c>
+      <c r="D25">
+        <v>0.06605192945298191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003740204315965253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003708540414486147</v>
+      </c>
+      <c r="C26">
+        <v>-0.04092169498442259</v>
+      </c>
+      <c r="D26">
+        <v>0.02147679394099915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004940956538729264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006420354438954402</v>
+      </c>
+      <c r="C28">
+        <v>-0.1076496428117106</v>
+      </c>
+      <c r="D28">
+        <v>-0.3211113363977444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.00167657909168676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003030388390663773</v>
+      </c>
+      <c r="C29">
+        <v>-0.04971522623148429</v>
+      </c>
+      <c r="D29">
+        <v>0.009354106288993906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002634987288136305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01004183311396728</v>
+      </c>
+      <c r="C30">
+        <v>-0.1415460623927889</v>
+      </c>
+      <c r="D30">
+        <v>0.1039454323066715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0007405286879105902</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006352301952273948</v>
+      </c>
+      <c r="C31">
+        <v>-0.04437248410062179</v>
+      </c>
+      <c r="D31">
+        <v>0.02897890983133094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0003028406623561389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004033405550166433</v>
+      </c>
+      <c r="C32">
+        <v>-0.03829392540837633</v>
+      </c>
+      <c r="D32">
+        <v>0.02410781505919263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001695108936261262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.00874389156274364</v>
+      </c>
+      <c r="C33">
+        <v>-0.08668839219410657</v>
+      </c>
+      <c r="D33">
+        <v>0.06512890066948131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004706341142732441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004046306564598002</v>
+      </c>
+      <c r="C34">
+        <v>-0.05722322193710632</v>
+      </c>
+      <c r="D34">
+        <v>0.05383117259807459</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0006589737334474658</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005080660740155157</v>
+      </c>
+      <c r="C35">
+        <v>-0.04003878436947241</v>
+      </c>
+      <c r="D35">
+        <v>0.01951618390828078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003782331578326955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00106189973668026</v>
+      </c>
+      <c r="C36">
+        <v>-0.02495116257225003</v>
+      </c>
+      <c r="D36">
+        <v>0.02112891097255228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001830793742293036</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009243379900413256</v>
+      </c>
+      <c r="C38">
+        <v>-0.03429282018415112</v>
+      </c>
+      <c r="D38">
+        <v>0.01485525786483254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01270320021393493</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007426327708654006</v>
+      </c>
+      <c r="C39">
+        <v>-0.1154356801994764</v>
+      </c>
+      <c r="D39">
+        <v>0.07531516882876962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.00963181849616666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002742445781935309</v>
+      </c>
+      <c r="C40">
+        <v>-0.0900245628321158</v>
+      </c>
+      <c r="D40">
+        <v>0.01399039808534802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0009560615799409978</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007370686636802169</v>
+      </c>
+      <c r="C41">
+        <v>-0.03784644121711207</v>
+      </c>
+      <c r="D41">
+        <v>0.03874248954463004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003122409709994057</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003976226730370215</v>
+      </c>
+      <c r="C43">
+        <v>-0.05311104620499571</v>
+      </c>
+      <c r="D43">
+        <v>0.02440531517477988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005767216645505533</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00307379618393801</v>
+      </c>
+      <c r="C44">
+        <v>-0.1092398598717609</v>
+      </c>
+      <c r="D44">
+        <v>0.06637525761016373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00129820846324789</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001917078627823852</v>
+      </c>
+      <c r="C46">
+        <v>-0.03316947535994338</v>
+      </c>
+      <c r="D46">
+        <v>0.0350416619790312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003917621505200528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002687152381836541</v>
+      </c>
+      <c r="C47">
+        <v>-0.0370011712312522</v>
+      </c>
+      <c r="D47">
+        <v>0.02267905751467487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004327912417482228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006777940219888386</v>
+      </c>
+      <c r="C48">
+        <v>-0.03096377909757563</v>
+      </c>
+      <c r="D48">
+        <v>0.03255893313931417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01122439932938547</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01618602678528399</v>
+      </c>
+      <c r="C49">
+        <v>-0.1844204737657295</v>
+      </c>
+      <c r="D49">
+        <v>0.0140277010177068</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001357945296143502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003760878950349526</v>
+      </c>
+      <c r="C50">
+        <v>-0.04347006530570956</v>
+      </c>
+      <c r="D50">
+        <v>0.03729297488715415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.00110498844731168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004804696949813457</v>
+      </c>
+      <c r="C51">
+        <v>-0.02577180602911327</v>
+      </c>
+      <c r="D51">
+        <v>0.02137550860456739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001015433929292115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02124213047730881</v>
+      </c>
+      <c r="C53">
+        <v>-0.1698798217667571</v>
+      </c>
+      <c r="D53">
+        <v>0.02733631217651943</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001296796457653</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008942453090210085</v>
+      </c>
+      <c r="C54">
+        <v>-0.05470566838886238</v>
+      </c>
+      <c r="D54">
+        <v>0.04359397728462416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004236855731230603</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009520035149892525</v>
+      </c>
+      <c r="C55">
+        <v>-0.1106336589660688</v>
+      </c>
+      <c r="D55">
+        <v>0.03829891230746319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001906854767194599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02043588576211298</v>
+      </c>
+      <c r="C56">
+        <v>-0.1741257110868721</v>
+      </c>
+      <c r="D56">
+        <v>0.01885256983557498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007642902252096512</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01951160692618938</v>
+      </c>
+      <c r="C58">
+        <v>-0.1093446743926492</v>
+      </c>
+      <c r="D58">
+        <v>0.06233675475136389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007226825900958207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01013576652935787</v>
+      </c>
+      <c r="C59">
+        <v>-0.1651948759456012</v>
+      </c>
+      <c r="D59">
+        <v>-0.3295906289332964</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003487195506692714</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02499135812838443</v>
+      </c>
+      <c r="C60">
+        <v>-0.2224316028682948</v>
+      </c>
+      <c r="D60">
+        <v>0.0306953255250188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.0142003898799876</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001572229248201902</v>
+      </c>
+      <c r="C61">
+        <v>-0.09445889797924559</v>
+      </c>
+      <c r="D61">
+        <v>0.05655102098998328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1634230840919037</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1469914165673682</v>
+      </c>
+      <c r="C62">
+        <v>-0.09306172903390399</v>
+      </c>
+      <c r="D62">
+        <v>0.03836216655050468</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0002863150449015914</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006585661691452259</v>
+      </c>
+      <c r="C63">
+        <v>-0.05469064729819776</v>
+      </c>
+      <c r="D63">
+        <v>0.02648901146525534</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0005636014000072263</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01506631170008125</v>
+      </c>
+      <c r="C64">
+        <v>-0.1055190840796564</v>
+      </c>
+      <c r="D64">
+        <v>0.06114319373920043</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002742043593733015</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01799063593351288</v>
+      </c>
+      <c r="C65">
+        <v>-0.1245849331311305</v>
+      </c>
+      <c r="D65">
+        <v>0.02487520015821596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007190665813762744</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01323480645258652</v>
+      </c>
+      <c r="C66">
+        <v>-0.1590350204285153</v>
+      </c>
+      <c r="D66">
+        <v>0.1119476962139537</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003606076484032919</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0156696672701779</v>
+      </c>
+      <c r="C67">
+        <v>-0.06538584431455616</v>
+      </c>
+      <c r="D67">
+        <v>0.02635944056559542</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005446211938321</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001222406431742257</v>
+      </c>
+      <c r="C68">
+        <v>-0.08693502788934</v>
+      </c>
+      <c r="D68">
+        <v>-0.261265526208702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002075646490385884</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005924867639682895</v>
+      </c>
+      <c r="C69">
+        <v>-0.05034760374584883</v>
+      </c>
+      <c r="D69">
+        <v>0.03845486016959909</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.329108737355046e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001796123451062316</v>
+      </c>
+      <c r="C70">
+        <v>-0.002780898079680882</v>
+      </c>
+      <c r="D70">
+        <v>0.0008794108736147071</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0008315337451241785</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006383801247144214</v>
+      </c>
+      <c r="C71">
+        <v>-0.09448938605210705</v>
+      </c>
+      <c r="D71">
+        <v>-0.3043043639400684</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003437308844200666</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01632840630765503</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529428739271453</v>
+      </c>
+      <c r="D72">
+        <v>0.01558522129691942</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01134327872777509</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03155690135399815</v>
+      </c>
+      <c r="C73">
+        <v>-0.2794294455214463</v>
+      </c>
+      <c r="D73">
+        <v>0.05712961375895981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.00537225137315603</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002064691130329765</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043566290304329</v>
+      </c>
+      <c r="D74">
+        <v>0.03413709655488485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002763898867275614</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01147022557296454</v>
+      </c>
+      <c r="C75">
+        <v>-0.1252478150854151</v>
+      </c>
+      <c r="D75">
+        <v>0.02186623716317598</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.007893199460892383</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02232443563461209</v>
+      </c>
+      <c r="C76">
+        <v>-0.1491539173829261</v>
+      </c>
+      <c r="D76">
+        <v>0.0579920409243103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003623093120997429</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02291625270656216</v>
+      </c>
+      <c r="C77">
+        <v>-0.1196767404166062</v>
+      </c>
+      <c r="D77">
+        <v>0.07905658531041451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001453369418162099</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01515766402871125</v>
+      </c>
+      <c r="C78">
+        <v>-0.09669349972172818</v>
+      </c>
+      <c r="D78">
+        <v>0.07116179230330642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02379650002354808</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03821553514984236</v>
+      </c>
+      <c r="C79">
+        <v>-0.1574714113013692</v>
+      </c>
+      <c r="D79">
+        <v>0.03153734514019906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005905820107534097</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01009387634440522</v>
+      </c>
+      <c r="C80">
+        <v>-0.03965780193816192</v>
+      </c>
+      <c r="D80">
+        <v>0.02897497136971642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.000747230530927756</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01623443098429223</v>
+      </c>
+      <c r="C81">
+        <v>-0.1288987477225813</v>
+      </c>
+      <c r="D81">
+        <v>0.04089535317234933</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.003919643010575421</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02013456329121765</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419391335914907</v>
+      </c>
+      <c r="D82">
+        <v>0.03600418564951552</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008456297418470704</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009966620473769922</v>
+      </c>
+      <c r="C83">
+        <v>-0.05505757867419478</v>
+      </c>
+      <c r="D83">
+        <v>0.05475311262696539</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01204053053478274</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01146965786590049</v>
+      </c>
+      <c r="C84">
+        <v>-0.03620488430451888</v>
+      </c>
+      <c r="D84">
+        <v>-0.003492788322346964</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01374946806350208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02919186584464478</v>
+      </c>
+      <c r="C85">
+        <v>-0.125934384123789</v>
+      </c>
+      <c r="D85">
+        <v>0.0434410680131839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002273768866255219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00500596323037443</v>
+      </c>
+      <c r="C86">
+        <v>-0.04947558202091323</v>
+      </c>
+      <c r="D86">
+        <v>0.03103451276247074</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.002822765289686589</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01094212016940288</v>
+      </c>
+      <c r="C87">
+        <v>-0.1287214367606158</v>
+      </c>
+      <c r="D87">
+        <v>0.07276981981888943</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01122320573062767</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002811007497767608</v>
+      </c>
+      <c r="C88">
+        <v>-0.06451810271724553</v>
+      </c>
+      <c r="D88">
+        <v>0.01986285567318635</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01379740230300459</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0012037321794532</v>
+      </c>
+      <c r="C89">
+        <v>-0.1469949173090176</v>
+      </c>
+      <c r="D89">
+        <v>-0.3292835943827784</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0006087815531502389</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007071488624060152</v>
+      </c>
+      <c r="C90">
+        <v>-0.1208626545746009</v>
+      </c>
+      <c r="D90">
+        <v>-0.3169644952311538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0003708200514237238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01056426961825106</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002039878983216</v>
+      </c>
+      <c r="D91">
+        <v>0.02307554701239966</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008429770447497997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001413216474076811</v>
+      </c>
+      <c r="C92">
+        <v>-0.1368272917983792</v>
+      </c>
+      <c r="D92">
+        <v>-0.3235645199639844</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0003274599360176519</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005314173871908148</v>
+      </c>
+      <c r="C93">
+        <v>-0.1062974845564827</v>
+      </c>
+      <c r="D93">
+        <v>-0.3003813979235179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.002863796241732126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02267750212697614</v>
+      </c>
+      <c r="C94">
+        <v>-0.1460758793573136</v>
+      </c>
+      <c r="D94">
+        <v>0.05023182512341382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004937814130192732</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01684155330404577</v>
+      </c>
+      <c r="C95">
+        <v>-0.1239899783204091</v>
+      </c>
+      <c r="D95">
+        <v>0.06123556067727376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0003727834474203133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03678716378128811</v>
+      </c>
+      <c r="C97">
+        <v>-0.2138796466651021</v>
+      </c>
+      <c r="D97">
+        <v>-0.009682716813694755</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003142013953784756</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03755590594483234</v>
+      </c>
+      <c r="C98">
+        <v>-0.2504432948011976</v>
+      </c>
+      <c r="D98">
+        <v>0.04798422564436192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9848506694124226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9816265343065362</v>
+      </c>
+      <c r="C99">
+        <v>0.1192462979743631</v>
+      </c>
+      <c r="D99">
+        <v>-0.02599446640769579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001598319551540404</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.0030639439464955</v>
+      </c>
+      <c r="C101">
+        <v>-0.04983084060928863</v>
+      </c>
+      <c r="D101">
+        <v>0.009727648529230623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
